--- a/python/tests/fixtures/no-header.xlsx
+++ b/python/tests/fixtures/no-header.xlsx
@@ -1,39 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,32 +60,75 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,10 +142,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -104,25 +166,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -131,76 +193,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -211,85 +263,1012 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.0</v>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.0</v>
+      <c r="B4" s="4">
+        <v>1</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>